--- a/Схемка.xlsx
+++ b/Схемка.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\DOGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\doge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC9FA21E-8523-4DB6-9FA4-2B6317677643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D060A622-D529-48C5-BE8D-96115EAC8CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2F7053-DA68-4C5D-B818-944A207249BF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2F7053-DA68-4C5D-B818-944A207249BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -108,18 +108,18 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,7 +438,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,31 +458,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -491,44 +491,44 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
@@ -536,28 +536,28 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
       <c r="D13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
       <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
